--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="register" sheetId="2" r:id="rId2"/>
+    <sheet name="addGroupManager" sheetId="2" r:id="rId2"/>
     <sheet name="registerquick" sheetId="3" r:id="rId3"/>
     <sheet name="accountSetting" sheetId="4" r:id="rId4"/>
     <sheet name="updatePassword" sheetId="5" r:id="rId5"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
   <si>
     <t>case_name</t>
   </si>
@@ -102,22 +102,235 @@
     <t>[密码不能为空]</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>authoritys</t>
+  </si>
+  <si>
+    <t>addsuccess</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>addsuccess_remarkNull</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>nameNull</t>
+  </si>
+  <si>
+    <t>[用户组名称不能为空]</t>
+  </si>
+  <si>
+    <t>authoritysNull</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>[权限不能为空]</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
-    <t>confirmpwd</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>interface4@163.com</t>
+    <t>registerQuick</t>
+  </si>
+  <si>
+    <t>facebook2@163.com</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>register_PasswordError</t>
+    <t>registerQuick_EmailError</t>
+  </si>
+  <si>
+    <t>facebook$163.com</t>
+  </si>
+  <si>
+    <t>100102</t>
+  </si>
+  <si>
+    <t>email with facebook$163.com call: Argument is not an json: email</t>
+  </si>
+  <si>
+    <t>registerQuick_EmailNull</t>
+  </si>
+  <si>
+    <t>email with  call: Argument is not an json: email</t>
+  </si>
+  <si>
+    <t>registerQuick_EmailExist</t>
+  </si>
+  <si>
+    <t>400503</t>
+  </si>
+  <si>
+    <t>EmailHasBeenUsed</t>
+  </si>
+  <si>
+    <t>registerQuick_TokenNull</t>
+  </si>
+  <si>
+    <t>100105</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>country_id</t>
+  </si>
+  <si>
+    <t>accountSetting</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>testNickName01</t>
+  </si>
+  <si>
+    <t>20170104</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>accountSetting_SexError</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>sex with aa call: Argument is not numeric: sex</t>
+  </si>
+  <si>
+    <t>accountSetting_SexNull</t>
+  </si>
+  <si>
+    <t>sex with  call: Argument is not numeric: sex</t>
+  </si>
+  <si>
+    <t>accountSetting_TelNull</t>
+  </si>
+  <si>
+    <t>accountSetting_NickNameNull</t>
+  </si>
+  <si>
+    <t>accountSetting_BirthdayError</t>
+  </si>
+  <si>
+    <t>asdfghjk</t>
+  </si>
+  <si>
+    <t>birthday with asdfghjk call: Argument is not numeric: birthday</t>
+  </si>
+  <si>
+    <t>accountSetting_BirthdayNull</t>
+  </si>
+  <si>
+    <t>birthday with  call: Argument is not numeric: birthday</t>
+  </si>
+  <si>
+    <t>accountSetting_CountryIdError</t>
+  </si>
+  <si>
+    <t>country_id with aa call: Argument is not numeric: country_id</t>
+  </si>
+  <si>
+    <t>accountSetting_CountryIdNull</t>
+  </si>
+  <si>
+    <t>country_id with  call: Argument is not numeric: country_id</t>
+  </si>
+  <si>
+    <t>accountSetting_TokenError</t>
+  </si>
+  <si>
+    <t>asdfg12435vbgfhd</t>
+  </si>
+  <si>
+    <t>accountSetting_TokenNull</t>
+  </si>
+  <si>
+    <t>old_password</t>
+  </si>
+  <si>
+    <t>password_confirm</t>
+  </si>
+  <si>
+    <t>updatePassword_OldPwdError</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>shein1234</t>
+  </si>
+  <si>
+    <t>400504</t>
+  </si>
+  <si>
+    <t>PasswordError</t>
+  </si>
+  <si>
+    <t>updatePassword_OldPwdNull</t>
+  </si>
+  <si>
+    <t>oldPassword with  call: Argument is a blank string: oldPassword</t>
+  </si>
+  <si>
+    <t>updatePassword_PwdNull</t>
+  </si>
+  <si>
+    <t>password with  call: Argument is a blank string: password</t>
+  </si>
+  <si>
+    <t>updatePassword_PwdError</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>400506</t>
+  </si>
+  <si>
+    <t>PasswordLengthError</t>
+  </si>
+  <si>
+    <t>updatePassword_PwdConfirmError</t>
+  </si>
+  <si>
+    <t>shein12</t>
   </si>
   <si>
     <t>400502</t>
@@ -126,225 +339,12 @@
     <t>please your input are the same</t>
   </si>
   <si>
-    <t>register_EmailError</t>
-  </si>
-  <si>
-    <t>interfa$163.com</t>
-  </si>
-  <si>
-    <t>100102</t>
-  </si>
-  <si>
-    <t>email with interfa$163.com call: Argument is not an json: email</t>
-  </si>
-  <si>
-    <t>register_EmailNull</t>
-  </si>
-  <si>
-    <t>email with  call: Argument is not an json: email</t>
-  </si>
-  <si>
-    <t>register_PasswordNull</t>
-  </si>
-  <si>
-    <t>password with  call: Argument is a blank string: password</t>
-  </si>
-  <si>
-    <t>register_ConfirmError</t>
-  </si>
-  <si>
-    <t>interface3@163.com</t>
-  </si>
-  <si>
-    <t>register_ConfirmNull</t>
+    <t>updatePassword_PwdConfirmNull</t>
   </si>
   <si>
     <t>passwordConfirm with  call: Argument is a blank string: passwordConfirm</t>
   </si>
   <si>
-    <t>register_EmailExist</t>
-  </si>
-  <si>
-    <t>400503</t>
-  </si>
-  <si>
-    <t>EmailHasBeenUsed</t>
-  </si>
-  <si>
-    <t>register_TokenNull</t>
-  </si>
-  <si>
-    <t>interface2@163.com</t>
-  </si>
-  <si>
-    <t>100105</t>
-  </si>
-  <si>
-    <t>Forbidden</t>
-  </si>
-  <si>
-    <t>registerQuick</t>
-  </si>
-  <si>
-    <t>facebook2@163.com</t>
-  </si>
-  <si>
-    <t>registerQuick_EmailError</t>
-  </si>
-  <si>
-    <t>facebook$163.com</t>
-  </si>
-  <si>
-    <t>email with facebook$163.com call: Argument is not an json: email</t>
-  </si>
-  <si>
-    <t>registerQuick_EmailNull</t>
-  </si>
-  <si>
-    <t>registerQuick_EmailExist</t>
-  </si>
-  <si>
-    <t>registerQuick_TokenNull</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>country_id</t>
-  </si>
-  <si>
-    <t>accountSetting</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>testNickName01</t>
-  </si>
-  <si>
-    <t>20170104</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>accountSetting_SexError</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>sex with aa call: Argument is not numeric: sex</t>
-  </si>
-  <si>
-    <t>accountSetting_SexNull</t>
-  </si>
-  <si>
-    <t>sex with  call: Argument is not numeric: sex</t>
-  </si>
-  <si>
-    <t>accountSetting_TelNull</t>
-  </si>
-  <si>
-    <t>accountSetting_NickNameNull</t>
-  </si>
-  <si>
-    <t>accountSetting_BirthdayError</t>
-  </si>
-  <si>
-    <t>asdfghjk</t>
-  </si>
-  <si>
-    <t>birthday with asdfghjk call: Argument is not numeric: birthday</t>
-  </si>
-  <si>
-    <t>accountSetting_BirthdayNull</t>
-  </si>
-  <si>
-    <t>birthday with  call: Argument is not numeric: birthday</t>
-  </si>
-  <si>
-    <t>accountSetting_CountryIdError</t>
-  </si>
-  <si>
-    <t>country_id with aa call: Argument is not numeric: country_id</t>
-  </si>
-  <si>
-    <t>accountSetting_CountryIdNull</t>
-  </si>
-  <si>
-    <t>country_id with  call: Argument is not numeric: country_id</t>
-  </si>
-  <si>
-    <t>accountSetting_TokenError</t>
-  </si>
-  <si>
-    <t>asdfg12435vbgfhd</t>
-  </si>
-  <si>
-    <t>accountSetting_TokenNull</t>
-  </si>
-  <si>
-    <t>old_password</t>
-  </si>
-  <si>
-    <t>password_confirm</t>
-  </si>
-  <si>
-    <t>updatePassword_OldPwdError</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>shein1234</t>
-  </si>
-  <si>
-    <t>400504</t>
-  </si>
-  <si>
-    <t>PasswordError</t>
-  </si>
-  <si>
-    <t>updatePassword_OldPwdNull</t>
-  </si>
-  <si>
-    <t>oldPassword with  call: Argument is a blank string: oldPassword</t>
-  </si>
-  <si>
-    <t>updatePassword_PwdNull</t>
-  </si>
-  <si>
-    <t>updatePassword_PwdError</t>
-  </si>
-  <si>
-    <t>she</t>
-  </si>
-  <si>
-    <t>400506</t>
-  </si>
-  <si>
-    <t>PasswordLengthError</t>
-  </si>
-  <si>
-    <t>updatePassword_PwdConfirmError</t>
-  </si>
-  <si>
-    <t>shein12</t>
-  </si>
-  <si>
-    <t>updatePassword_PwdConfirmNull</t>
-  </si>
-  <si>
     <t>updatePassword_TokenError</t>
   </si>
   <si>
@@ -496,9 +496,6 @@
   </si>
   <si>
     <t>addAddress_address1Error</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>addAddress_cityNull</t>
@@ -602,60 +599,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,11 +615,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,9 +637,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,7 +667,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,7 +675,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,16 +696,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,7 +750,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,13 +876,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,121 +894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,6 +972,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -998,80 +1069,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1080,10 +1077,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,16 +1089,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,119 +1107,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,6 +1233,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1592,65 +1598,65 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="34.75" customWidth="1"/>
     <col min="8" max="8" width="62.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
@@ -1658,25 +1664,25 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
@@ -1684,25 +1690,25 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
@@ -1710,22 +1716,22 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H5" t="s">
@@ -1733,22 +1739,22 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H6" t="s">
@@ -1764,21 +1770,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
     <col min="3" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -1795,13 +1802,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1812,86 +1819,76 @@
     </row>
     <row r="2" customFormat="1" spans="1:9">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="C2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>33</v>
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>37</v>
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>38</v>
@@ -1904,174 +1901,23 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>37</v>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:9">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:9">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:9">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:9">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="interfa$163.com"/>
-    <hyperlink ref="D7" r:id="rId2" display="interface3@163.com"/>
-    <hyperlink ref="D8" r:id="rId2" display="interface3@163.com"/>
-    <hyperlink ref="D2" r:id="rId3" display="interface4@163.com"/>
-    <hyperlink ref="D3" r:id="rId3" display="interface4@163.com"/>
-    <hyperlink ref="D6" r:id="rId3" display="interface4@163.com"/>
-    <hyperlink ref="D9" r:id="rId3" display="interface4@163.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2107,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -2122,114 +1968,114 @@
     </row>
     <row r="2" customFormat="1" spans="1:7">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>37</v>
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2273,19 +2119,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2299,369 +2145,369 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
         <v>70</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>68</v>
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="C6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>68</v>
+      <c r="C7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>37</v>
+        <v>76</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>68</v>
+      <c r="C8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>68</v>
+      <c r="C9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>37</v>
+      <c r="I9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>68</v>
+      <c r="C10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>68</v>
+      <c r="D12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2699,13 +2545,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -2719,167 +2565,167 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
         <v>95</v>
-      </c>
-      <c r="F3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
         <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
         <v>107</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2892,23 +2738,23 @@
       <c r="C8" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>52</v>
+        <v>91</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2918,22 +2764,22 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>111</v>
       </c>
       <c r="I9" t="s">
@@ -2947,23 +2793,23 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>52</v>
+        <v>91</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2973,26 +2819,26 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>115</v>
@@ -3060,7 +2906,7 @@
         <v>123</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>124</v>
@@ -3091,7 +2937,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3103,10 +2949,10 @@
       <c r="F2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -3121,10 +2967,10 @@
       <c r="L2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -3133,20 +2979,20 @@
       <c r="P2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="13" t="s">
+      <c r="R2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:21">
@@ -3156,7 +3002,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3"/>
@@ -3166,10 +3012,10 @@
       <c r="F3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -3184,10 +3030,10 @@
       <c r="L3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O3" s="3" t="s">
@@ -3196,16 +3042,16 @@
       <c r="P3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="13" t="s">
+      <c r="R3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="16" t="s">
         <v>142</v>
       </c>
       <c r="U3" t="s">
@@ -3219,7 +3065,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -3229,10 +3075,10 @@
       <c r="F4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -3247,10 +3093,10 @@
       <c r="L4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -3259,16 +3105,16 @@
       <c r="P4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="13" t="s">
+      <c r="R4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>145</v>
       </c>
       <c r="U4" t="s">
@@ -3282,7 +3128,7 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -3292,10 +3138,10 @@
         <v>130</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -3310,10 +3156,10 @@
       <c r="L5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O5" s="3" t="s">
@@ -3322,16 +3168,16 @@
       <c r="P5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="13" t="s">
+      <c r="R5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="16" t="s">
         <v>148</v>
       </c>
       <c r="U5" t="s">
@@ -3345,7 +3191,7 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -3358,7 +3204,7 @@
         <v>131</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -3373,10 +3219,10 @@
       <c r="L6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -3385,16 +3231,16 @@
       <c r="P6" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="13" t="s">
+      <c r="R6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="16" t="s">
         <v>151</v>
       </c>
       <c r="U6" t="s">
@@ -3408,7 +3254,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -3423,7 +3269,7 @@
       <c r="G7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -3438,10 +3284,10 @@
       <c r="L7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O7" s="3" t="s">
@@ -3450,16 +3296,16 @@
       <c r="P7" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="13" t="s">
+      <c r="R7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="16" t="s">
         <v>151</v>
       </c>
       <c r="U7" t="s">
@@ -3473,7 +3319,7 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -3485,10 +3331,10 @@
       <c r="F8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I8" s="3"/>
@@ -3501,10 +3347,10 @@
       <c r="L8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O8" s="3" t="s">
@@ -3513,16 +3359,16 @@
       <c r="P8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="13" t="s">
+      <c r="R8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="16" t="s">
         <v>156</v>
       </c>
       <c r="U8" t="s">
@@ -3536,7 +3382,7 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -3548,14 +3394,14 @@
       <c r="F9" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>135</v>
@@ -3566,10 +3412,10 @@
       <c r="L9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -3578,16 +3424,16 @@
       <c r="P9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="13" t="s">
+      <c r="R9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="16" t="s">
         <v>156</v>
       </c>
       <c r="U9" t="s">
@@ -3596,12 +3442,12 @@
     </row>
     <row r="10" ht="15" spans="1:21">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3613,10 +3459,10 @@
       <c r="F10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -3629,10 +3475,10 @@
       <c r="L10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -3641,30 +3487,30 @@
       <c r="P10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="13" t="s">
+      <c r="R10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="U10" t="s">
         <v>161</v>
-      </c>
-      <c r="U10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:21">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -3676,10 +3522,10 @@
       <c r="F11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -3689,15 +3535,15 @@
         <v>135</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -3706,30 +3552,30 @@
       <c r="P11" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="13" t="s">
+      <c r="R11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="U11" t="s">
         <v>161</v>
-      </c>
-      <c r="U11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:21">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -3741,10 +3587,10 @@
       <c r="F12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -3757,10 +3603,10 @@
         <v>136</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -3769,30 +3615,30 @@
       <c r="P12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="13" t="s">
+      <c r="R12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="U12" t="s">
         <v>166</v>
-      </c>
-      <c r="U12" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:21">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -3804,10 +3650,10 @@
       <c r="F13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -3823,7 +3669,7 @@
         <v>137</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -3832,30 +3678,30 @@
       <c r="P13" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" s="13" t="s">
+      <c r="R13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="U13" t="s">
         <v>169</v>
-      </c>
-      <c r="U13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:21">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3867,10 +3713,10 @@
       <c r="F14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -3885,10 +3731,10 @@
       <c r="L14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M14" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="N14" s="15" t="s">
+      <c r="M14" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -3897,30 +3743,30 @@
       <c r="P14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="13" t="s">
+      <c r="R14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="U14" t="s">
         <v>169</v>
-      </c>
-      <c r="U14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:21">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -3932,10 +3778,10 @@
       <c r="F15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -3950,7 +3796,7 @@
       <c r="L15" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="3"/>
@@ -3960,31 +3806,31 @@
       <c r="P15" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T15" s="13" t="s">
+      <c r="R15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="U15" t="s">
         <v>174</v>
-      </c>
-      <c r="U15" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:21">
       <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>176</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>129</v>
@@ -3995,10 +3841,10 @@
       <c r="F16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -4013,10 +3859,10 @@
       <c r="L16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -4025,30 +3871,30 @@
       <c r="P16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>52</v>
+      <c r="R16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:21">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -4060,10 +3906,10 @@
       <c r="F17" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -4078,10 +3924,10 @@
       <c r="L17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -4090,16 +3936,16 @@
       <c r="P17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T17" s="13" t="s">
+      <c r="R17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="16" t="s">
         <v>111</v>
       </c>
       <c r="U17" t="s">
@@ -4108,7 +3954,7 @@
     </row>
     <row r="18" ht="15" spans="1:21">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -4122,10 +3968,10 @@
       <c r="F18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -4140,10 +3986,10 @@
       <c r="L18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="18" t="s">
         <v>138</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -4152,20 +3998,20 @@
       <c r="P18" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>52</v>
+      <c r="R18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="15" spans="4:17">
